--- a/VitalSigns/CurrentBuild/StructureDefinition-OxygenAdministrationMethod.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-OxygenAdministrationMethod.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-05T07:10:55+00:00</t>
+    <t>2022-09-14T07:39:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-OxygenAdministrationMethod.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-OxygenAdministrationMethod.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T07:39:51+00:00</t>
+    <t>2022-09-26T10:10:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Observation</t>
+    <t>element:Element</t>
   </si>
   <si>
     <t>Path</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-OxygenAdministrationMethod.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-OxygenAdministrationMethod.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T10:10:35+00:00</t>
+    <t>2022-09-26T10:51:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-OxygenAdministrationMethod.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-OxygenAdministrationMethod.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1-alpha</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T10:51:47+00:00</t>
+    <t>2022-09-26T11:09:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/VitalSigns/CurrentBuild/StructureDefinition-OxygenAdministrationMethod.xlsx
+++ b/VitalSigns/CurrentBuild/StructureDefinition-OxygenAdministrationMethod.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-26T11:09:39+00:00</t>
+    <t>2022-10-24T08:10:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -241,50 +241,50 @@
 </t>
   </si>
   <si>
+    <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Extension.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Extension.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Extension.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -866,7 +866,7 @@
         <v>74</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>70</v>
@@ -874,7 +874,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -885,25 +885,25 @@
         <v>71</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>79</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -954,13 +954,13 @@
         <v>70</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>71</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>70</v>
@@ -969,12 +969,12 @@
         <v>70</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -997,7 +997,7 @@
         <v>70</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>25</v>
@@ -1042,19 +1042,19 @@
         <v>70</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>71</v>
@@ -1066,7 +1066,7 @@
         <v>70</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>70</v>
@@ -1082,10 +1082,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>70</v>
@@ -1159,10 +1159,10 @@
         <v>89</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>70</v>
@@ -1187,19 +1187,19 @@
         <v>71</v>
       </c>
       <c r="F6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J6" t="s" s="2">
         <v>77</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="J6" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>96</v>
@@ -1262,7 +1262,7 @@
         <v>71</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>70</v>
